--- a/artfynd/A 51104-2025 artfynd.xlsx
+++ b/artfynd/A 51104-2025 artfynd.xlsx
@@ -3200,7 +3200,7 @@
         <v>126244096</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
